--- a/PR45.xlsx
+++ b/PR45.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-m-e\PycharmProjects\pythonProject20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CA3191-2B71-4F53-8960-E09619AED69F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC4AC13-08C9-4485-BFAB-C41EBC029B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2007" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2455" uniqueCount="249">
   <si>
     <t>ФИО</t>
   </si>
@@ -105,12 +105,6 @@
   </si>
   <si>
     <t>Мегафон Голосового бот</t>
-  </si>
-  <si>
-    <t>Теле2 Чат-бот</t>
-  </si>
-  <si>
-    <t>Теле2 Голосового бот</t>
   </si>
   <si>
     <t>Т-Банк Чат-бот</t>
@@ -953,49 +947,6 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">611 (общий номер Теле2)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">2. Начать запись звонка любым доступным способом (функционалом самого устройства на экране звонка / сторонней программой / внешним микрофоном)
-3. Обариться голосом по Сценарию 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;golos&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Позвонить на номер - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">8 800 333 33 33 (общий номер Т-Банк) Обратите внимание, что голос бота может быть очень реалистичным, но это всё же бот, а не оператор.
 </t>
     </r>
@@ -1232,84 +1183,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;chat&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-4. Зафиксировать время ответа</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Открыть приложение </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Теле2 - "t2"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-2. Внизу главной страницы мобильного приложения нажать на кнопку «Помощь и чат». Перейти в канал "Чат (со специалистом поддержки)" </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(обратите внимание, кнопка чата на разных ОС может быть расположена по-разному)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">3. Обратиться в чат по следующему сценарию:
 </t>
     </r>
     <r>
@@ -1674,6 +1547,136 @@
   <si>
     <t>Шумакова Юлия Юрьевна</t>
   </si>
+  <si>
+    <t>Билайн Чат-бот</t>
+  </si>
+  <si>
+    <t>Билайн Голосового бот</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Позвонить на номер - 8-800-700-0611 (общий номер Билайн)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Начать запись звонка любым доступным способом (функционалом самого устройства на экране звонка / сторонней программой / внешним микрофоном)
+3. Сначала голосовой бот может спросить вас "чтобы сообщить о попытке мошенничества или узнать о том, как обезопасить себя, нажмите 1" - необходимо подождать и ничего не говорить.
+4. Далее бот попросит вас задать вопрос после звукового сигнала - дождитесь сигнала
+5.. Обаритесь голосом к боту по следующему Сценарию 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;golos&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. Открыть приложение Билайн</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Нажать в нижнем правом углу на иконку чата и выбрать "Чат с поддержкой" (обратите внимание, кнопка чата на разных ОС может быть расположена по-разному)
+3. Обратиться в чат по следующему сценарию:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;chat&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Билайн</t>
+  </si>
+  <si>
+    <t>Братцев Вадим Андреевич</t>
+  </si>
+  <si>
+    <t>Ерофеева Анастасия Олеговна</t>
+  </si>
+  <si>
+    <t>Кильдюшевская Надежда Викторовна</t>
+  </si>
+  <si>
+    <t>Фишкин Сергей Анатольевич</t>
+  </si>
+  <si>
+    <t>Володина Наталья Дмитриевна</t>
+  </si>
+  <si>
+    <t>Конкина Елена Геннадьевна</t>
+  </si>
+  <si>
+    <t>Круглова Ия Валерьевна</t>
+  </si>
+  <si>
+    <t>Кузьмина Илья Иванович</t>
+  </si>
+  <si>
+    <t>Санников Михаил Дмитриевич</t>
+  </si>
+  <si>
+    <t>Сушков Дмитрий Александрович</t>
+  </si>
+  <si>
+    <t>Коростелёв Сергей Александрович</t>
+  </si>
+  <si>
+    <t>Никитин Андрей Васильевич</t>
+  </si>
+  <si>
+    <t>Петров Иван Дмитриевич</t>
+  </si>
+  <si>
+    <t>Предко Дмитрий Александрович</t>
+  </si>
+  <si>
+    <t>Сафиуллин Амир Рафаэльевич</t>
+  </si>
+  <si>
+    <t>Квитко Марина Валерьевна</t>
+  </si>
+  <si>
+    <t>Худайбердиева Вера Владимировна</t>
+  </si>
+  <si>
+    <t>Цокиева Гульназ Юлаевна</t>
+  </si>
+  <si>
+    <t>Болховских Мария Владиславовна</t>
+  </si>
 </sst>
 </file>
 
@@ -1753,7 +1756,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1796,8 +1799,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1820,11 +1829,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1868,6 +1892,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2090,8 +2123,8 @@
   </sheetPr>
   <dimension ref="A1:H1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A263" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A279" sqref="A279"/>
+    <sheetView tabSelected="1" topLeftCell="A270" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A281" sqref="A281:H344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2112,10 +2145,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>3</v>
@@ -2129,10 +2162,10 @@
     </row>
     <row r="2" spans="1:8" ht="178.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>6</v>
@@ -2153,10 +2186,10 @@
     </row>
     <row r="3" spans="1:8" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>6</v>
@@ -2177,10 +2210,10 @@
     </row>
     <row r="4" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>6</v>
@@ -2201,10 +2234,10 @@
     </row>
     <row r="5" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>6</v>
@@ -2225,10 +2258,10 @@
     </row>
     <row r="6" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>6</v>
@@ -2249,10 +2282,10 @@
     </row>
     <row r="7" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>6</v>
@@ -2273,10 +2306,10 @@
     </row>
     <row r="8" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>6</v>
@@ -2297,10 +2330,10 @@
     </row>
     <row r="9" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>6</v>
@@ -2321,10 +2354,10 @@
     </row>
     <row r="10" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>6</v>
@@ -2345,10 +2378,10 @@
     </row>
     <row r="11" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>6</v>
@@ -2369,10 +2402,10 @@
     </row>
     <row r="12" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>6</v>
@@ -2393,10 +2426,10 @@
     </row>
     <row r="13" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>6</v>
@@ -2417,10 +2450,10 @@
     </row>
     <row r="14" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>6</v>
@@ -2441,10 +2474,10 @@
     </row>
     <row r="15" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>6</v>
@@ -2465,10 +2498,10 @@
     </row>
     <row r="16" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>6</v>
@@ -2489,10 +2522,10 @@
     </row>
     <row r="17" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>6</v>
@@ -2513,10 +2546,10 @@
     </row>
     <row r="18" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>6</v>
@@ -2537,10 +2570,10 @@
     </row>
     <row r="19" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>6</v>
@@ -2561,10 +2594,10 @@
     </row>
     <row r="20" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>6</v>
@@ -2585,10 +2618,10 @@
     </row>
     <row r="21" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>6</v>
@@ -2609,10 +2642,10 @@
     </row>
     <row r="22" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>6</v>
@@ -2633,10 +2666,10 @@
     </row>
     <row r="23" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>6</v>
@@ -2657,10 +2690,10 @@
     </row>
     <row r="24" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>6</v>
@@ -2681,10 +2714,10 @@
     </row>
     <row r="25" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>6</v>
@@ -2705,10 +2738,10 @@
     </row>
     <row r="26" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>6</v>
@@ -2729,10 +2762,10 @@
     </row>
     <row r="27" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>6</v>
@@ -2753,10 +2786,10 @@
     </row>
     <row r="28" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>6</v>
@@ -2777,10 +2810,10 @@
     </row>
     <row r="29" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>6</v>
@@ -2801,10 +2834,10 @@
     </row>
     <row r="30" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>6</v>
@@ -2825,10 +2858,10 @@
     </row>
     <row r="31" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>6</v>
@@ -2849,10 +2882,10 @@
     </row>
     <row r="32" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>6</v>
@@ -2873,10 +2906,10 @@
     </row>
     <row r="33" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>6</v>
@@ -2897,10 +2930,10 @@
     </row>
     <row r="34" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>6</v>
@@ -2921,10 +2954,10 @@
     </row>
     <row r="35" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>6</v>
@@ -2945,10 +2978,10 @@
     </row>
     <row r="36" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>6</v>
@@ -2969,10 +3002,10 @@
     </row>
     <row r="37" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>6</v>
@@ -2993,10 +3026,10 @@
     </row>
     <row r="38" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>6</v>
@@ -3017,10 +3050,10 @@
     </row>
     <row r="39" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>6</v>
@@ -3041,10 +3074,10 @@
     </row>
     <row r="40" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>6</v>
@@ -3065,10 +3098,10 @@
     </row>
     <row r="41" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>6</v>
@@ -3089,10 +3122,10 @@
     </row>
     <row r="42" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>6</v>
@@ -3113,10 +3146,10 @@
     </row>
     <row r="43" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>6</v>
@@ -3137,10 +3170,10 @@
     </row>
     <row r="44" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>6</v>
@@ -3161,10 +3194,10 @@
     </row>
     <row r="45" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>6</v>
@@ -3185,10 +3218,10 @@
     </row>
     <row r="46" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>6</v>
@@ -3209,10 +3242,10 @@
     </row>
     <row r="47" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>6</v>
@@ -3233,10 +3266,10 @@
     </row>
     <row r="48" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>6</v>
@@ -3257,10 +3290,10 @@
     </row>
     <row r="49" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>6</v>
@@ -3281,10 +3314,10 @@
     </row>
     <row r="50" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>6</v>
@@ -3305,10 +3338,10 @@
     </row>
     <row r="51" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>6</v>
@@ -3329,10 +3362,10 @@
     </row>
     <row r="52" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>6</v>
@@ -3353,10 +3386,10 @@
     </row>
     <row r="53" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>11</v>
@@ -3377,10 +3410,10 @@
     </row>
     <row r="54" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>11</v>
@@ -3401,10 +3434,10 @@
     </row>
     <row r="55" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>11</v>
@@ -3425,10 +3458,10 @@
     </row>
     <row r="56" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>11</v>
@@ -3449,10 +3482,10 @@
     </row>
     <row r="57" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>11</v>
@@ -3473,10 +3506,10 @@
     </row>
     <row r="58" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>11</v>
@@ -3497,10 +3530,10 @@
     </row>
     <row r="59" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>11</v>
@@ -3521,10 +3554,10 @@
     </row>
     <row r="60" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>11</v>
@@ -3545,10 +3578,10 @@
     </row>
     <row r="61" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>11</v>
@@ -3569,10 +3602,10 @@
     </row>
     <row r="62" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>11</v>
@@ -3593,10 +3626,10 @@
     </row>
     <row r="63" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>11</v>
@@ -3617,10 +3650,10 @@
     </row>
     <row r="64" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>11</v>
@@ -3641,10 +3674,10 @@
     </row>
     <row r="65" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>11</v>
@@ -3665,10 +3698,10 @@
     </row>
     <row r="66" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>11</v>
@@ -3689,10 +3722,10 @@
     </row>
     <row r="67" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>11</v>
@@ -3713,10 +3746,10 @@
     </row>
     <row r="68" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>11</v>
@@ -3737,10 +3770,10 @@
     </row>
     <row r="69" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>11</v>
@@ -3761,10 +3794,10 @@
     </row>
     <row r="70" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>11</v>
@@ -3785,10 +3818,10 @@
     </row>
     <row r="71" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>11</v>
@@ -3809,10 +3842,10 @@
     </row>
     <row r="72" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>11</v>
@@ -3833,10 +3866,10 @@
     </row>
     <row r="73" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>11</v>
@@ -3857,10 +3890,10 @@
     </row>
     <row r="74" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>11</v>
@@ -3881,10 +3914,10 @@
     </row>
     <row r="75" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>11</v>
@@ -3905,10 +3938,10 @@
     </row>
     <row r="76" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>11</v>
@@ -3929,10 +3962,10 @@
     </row>
     <row r="77" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>11</v>
@@ -3953,10 +3986,10 @@
     </row>
     <row r="78" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B78" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>11</v>
@@ -3977,10 +4010,10 @@
     </row>
     <row r="79" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>11</v>
@@ -4001,10 +4034,10 @@
     </row>
     <row r="80" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C80" s="6" t="s">
         <v>11</v>
@@ -4025,10 +4058,10 @@
     </row>
     <row r="81" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>11</v>
@@ -4049,10 +4082,10 @@
     </row>
     <row r="82" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C82" s="6" t="s">
         <v>11</v>
@@ -4073,10 +4106,10 @@
     </row>
     <row r="83" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>11</v>
@@ -4097,10 +4130,10 @@
     </row>
     <row r="84" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>11</v>
@@ -4121,10 +4154,10 @@
     </row>
     <row r="85" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>11</v>
@@ -4145,10 +4178,10 @@
     </row>
     <row r="86" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>11</v>
@@ -4169,10 +4202,10 @@
     </row>
     <row r="87" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>11</v>
@@ -4193,10 +4226,10 @@
     </row>
     <row r="88" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>11</v>
@@ -4217,10 +4250,10 @@
     </row>
     <row r="89" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>11</v>
@@ -4241,10 +4274,10 @@
     </row>
     <row r="90" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>11</v>
@@ -4265,10 +4298,10 @@
     </row>
     <row r="91" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>11</v>
@@ -4289,10 +4322,10 @@
     </row>
     <row r="92" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>11</v>
@@ -4313,10 +4346,10 @@
     </row>
     <row r="93" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>11</v>
@@ -4337,10 +4370,10 @@
     </row>
     <row r="94" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>11</v>
@@ -4361,10 +4394,10 @@
     </row>
     <row r="95" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B95" s="16" t="s">
         <v>140</v>
-      </c>
-      <c r="B95" s="16" t="s">
-        <v>142</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>11</v>
@@ -4385,10 +4418,10 @@
     </row>
     <row r="96" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>11</v>
@@ -4409,10 +4442,10 @@
     </row>
     <row r="97" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B97" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>11</v>
@@ -4433,10 +4466,10 @@
     </row>
     <row r="98" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B98" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>11</v>
@@ -4457,10 +4490,10 @@
     </row>
     <row r="99" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="15" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B99" s="16" t="s">
-        <v>142</v>
+        <v>229</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>11</v>
@@ -4481,10 +4514,10 @@
     </row>
     <row r="100" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="15" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B100" s="16" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>11</v>
@@ -4507,10 +4540,10 @@
     </row>
     <row r="101" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="15" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>6</v>
@@ -4531,10 +4564,10 @@
     </row>
     <row r="102" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="15" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>6</v>
@@ -4555,10 +4588,10 @@
     </row>
     <row r="103" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>6</v>
@@ -4579,10 +4612,10 @@
     </row>
     <row r="104" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C104" s="6" t="s">
         <v>6</v>
@@ -4603,10 +4636,10 @@
     </row>
     <row r="105" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="15" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>6</v>
@@ -4627,10 +4660,10 @@
     </row>
     <row r="106" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>6</v>
@@ -4651,10 +4684,10 @@
     </row>
     <row r="107" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C107" s="6" t="s">
         <v>6</v>
@@ -4675,10 +4708,10 @@
     </row>
     <row r="108" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>6</v>
@@ -4699,10 +4732,10 @@
     </row>
     <row r="109" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="15" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C109" s="6" t="s">
         <v>6</v>
@@ -4723,10 +4756,10 @@
     </row>
     <row r="110" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C110" s="6" t="s">
         <v>6</v>
@@ -4747,10 +4780,10 @@
     </row>
     <row r="111" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C111" s="6" t="s">
         <v>6</v>
@@ -4771,10 +4804,10 @@
     </row>
     <row r="112" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="15" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C112" s="6" t="s">
         <v>6</v>
@@ -4795,10 +4828,10 @@
     </row>
     <row r="113" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>6</v>
@@ -4819,10 +4852,10 @@
     </row>
     <row r="114" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C114" s="6" t="s">
         <v>6</v>
@@ -4843,10 +4876,10 @@
     </row>
     <row r="115" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C115" s="6" t="s">
         <v>6</v>
@@ -4867,10 +4900,10 @@
     </row>
     <row r="116" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>6</v>
@@ -4891,10 +4924,10 @@
     </row>
     <row r="117" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="15" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C117" s="6" t="s">
         <v>6</v>
@@ -4915,10 +4948,10 @@
     </row>
     <row r="118" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A118" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C118" s="6" t="s">
         <v>6</v>
@@ -4939,10 +4972,10 @@
     </row>
     <row r="119" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A119" s="15" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C119" s="6" t="s">
         <v>6</v>
@@ -4963,10 +4996,10 @@
     </row>
     <row r="120" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A120" s="15" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C120" s="6" t="s">
         <v>6</v>
@@ -4987,10 +5020,10 @@
     </row>
     <row r="121" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C121" s="6" t="s">
         <v>6</v>
@@ -5011,10 +5044,10 @@
     </row>
     <row r="122" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C122" s="6" t="s">
         <v>6</v>
@@ -5035,10 +5068,10 @@
     </row>
     <row r="123" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="15" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C123" s="6" t="s">
         <v>6</v>
@@ -5059,10 +5092,10 @@
     </row>
     <row r="124" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A124" s="15" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C124" s="6" t="s">
         <v>6</v>
@@ -5083,10 +5116,10 @@
     </row>
     <row r="125" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A125" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C125" s="6" t="s">
         <v>6</v>
@@ -5107,10 +5140,10 @@
     </row>
     <row r="126" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A126" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C126" s="6" t="s">
         <v>6</v>
@@ -5131,10 +5164,10 @@
     </row>
     <row r="127" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C127" s="6" t="s">
         <v>6</v>
@@ -5155,10 +5188,10 @@
     </row>
     <row r="128" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A128" s="15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C128" s="6" t="s">
         <v>6</v>
@@ -5179,10 +5212,10 @@
     </row>
     <row r="129" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A129" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C129" s="6" t="s">
         <v>6</v>
@@ -5203,10 +5236,10 @@
     </row>
     <row r="130" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A130" s="15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C130" s="6" t="s">
         <v>6</v>
@@ -5227,10 +5260,10 @@
     </row>
     <row r="131" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A131" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C131" s="6" t="s">
         <v>6</v>
@@ -5251,10 +5284,10 @@
     </row>
     <row r="132" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A132" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C132" s="6" t="s">
         <v>6</v>
@@ -5275,10 +5308,10 @@
     </row>
     <row r="133" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C133" s="6" t="s">
         <v>6</v>
@@ -5299,10 +5332,10 @@
     </row>
     <row r="134" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A134" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C134" s="6" t="s">
         <v>6</v>
@@ -5323,10 +5356,10 @@
     </row>
     <row r="135" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A135" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C135" s="6" t="s">
         <v>6</v>
@@ -5347,10 +5380,10 @@
     </row>
     <row r="136" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A136" s="15" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C136" s="6" t="s">
         <v>6</v>
@@ -5371,10 +5404,10 @@
     </row>
     <row r="137" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A137" s="15" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C137" s="6" t="s">
         <v>6</v>
@@ -5395,10 +5428,10 @@
     </row>
     <row r="138" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A138" s="15" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C138" s="6" t="s">
         <v>6</v>
@@ -5419,10 +5452,10 @@
     </row>
     <row r="139" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A139" s="15" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C139" s="6" t="s">
         <v>6</v>
@@ -5443,10 +5476,10 @@
     </row>
     <row r="140" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A140" s="15" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C140" s="6" t="s">
         <v>6</v>
@@ -5467,10 +5500,10 @@
     </row>
     <row r="141" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A141" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C141" s="6" t="s">
         <v>6</v>
@@ -5491,10 +5524,10 @@
     </row>
     <row r="142" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A142" s="15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C142" s="6" t="s">
         <v>6</v>
@@ -5515,10 +5548,10 @@
     </row>
     <row r="143" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A143" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C143" s="6" t="s">
         <v>6</v>
@@ -5539,10 +5572,10 @@
     </row>
     <row r="144" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A144" s="15" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C144" s="6" t="s">
         <v>6</v>
@@ -5563,10 +5596,10 @@
     </row>
     <row r="145" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A145" s="15" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C145" s="6" t="s">
         <v>6</v>
@@ -5587,10 +5620,10 @@
     </row>
     <row r="146" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A146" s="15" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C146" s="6" t="s">
         <v>6</v>
@@ -5611,10 +5644,10 @@
     </row>
     <row r="147" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A147" s="15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C147" s="6" t="s">
         <v>6</v>
@@ -5635,10 +5668,10 @@
     </row>
     <row r="148" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A148" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C148" s="6" t="s">
         <v>6</v>
@@ -5659,10 +5692,10 @@
     </row>
     <row r="149" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A149" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C149" s="6" t="s">
         <v>6</v>
@@ -5683,10 +5716,10 @@
     </row>
     <row r="150" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A150" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C150" s="6" t="s">
         <v>6</v>
@@ -5707,10 +5740,10 @@
     </row>
     <row r="151" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A151" s="15" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C151" s="6" t="s">
         <v>11</v>
@@ -5731,10 +5764,10 @@
     </row>
     <row r="152" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A152" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C152" s="6" t="s">
         <v>11</v>
@@ -5755,10 +5788,10 @@
     </row>
     <row r="153" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A153" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C153" s="6" t="s">
         <v>11</v>
@@ -5779,10 +5812,10 @@
     </row>
     <row r="154" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A154" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C154" s="6" t="s">
         <v>11</v>
@@ -5803,10 +5836,10 @@
     </row>
     <row r="155" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A155" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C155" s="6" t="s">
         <v>11</v>
@@ -5827,10 +5860,10 @@
     </row>
     <row r="156" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A156" s="15" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C156" s="6" t="s">
         <v>11</v>
@@ -5851,10 +5884,10 @@
     </row>
     <row r="157" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A157" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C157" s="6" t="s">
         <v>11</v>
@@ -5875,10 +5908,10 @@
     </row>
     <row r="158" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A158" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C158" s="6" t="s">
         <v>11</v>
@@ -5899,10 +5932,10 @@
     </row>
     <row r="159" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A159" s="15" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C159" s="6" t="s">
         <v>11</v>
@@ -5923,10 +5956,10 @@
     </row>
     <row r="160" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A160" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C160" s="6" t="s">
         <v>11</v>
@@ -5947,10 +5980,10 @@
     </row>
     <row r="161" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A161" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C161" s="6" t="s">
         <v>11</v>
@@ -5971,10 +6004,10 @@
     </row>
     <row r="162" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A162" s="15" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C162" s="6" t="s">
         <v>11</v>
@@ -5995,10 +6028,10 @@
     </row>
     <row r="163" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A163" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C163" s="6" t="s">
         <v>11</v>
@@ -6019,10 +6052,10 @@
     </row>
     <row r="164" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A164" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C164" s="6" t="s">
         <v>11</v>
@@ -6043,10 +6076,10 @@
     </row>
     <row r="165" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A165" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C165" s="6" t="s">
         <v>11</v>
@@ -6067,10 +6100,10 @@
     </row>
     <row r="166" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A166" s="15" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C166" s="6" t="s">
         <v>11</v>
@@ -6091,10 +6124,10 @@
     </row>
     <row r="167" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A167" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C167" s="6" t="s">
         <v>11</v>
@@ -6115,10 +6148,10 @@
     </row>
     <row r="168" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A168" s="15" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C168" s="6" t="s">
         <v>11</v>
@@ -6139,10 +6172,10 @@
     </row>
     <row r="169" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A169" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C169" s="6" t="s">
         <v>11</v>
@@ -6163,10 +6196,10 @@
     </row>
     <row r="170" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A170" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C170" s="6" t="s">
         <v>11</v>
@@ -6187,10 +6220,10 @@
     </row>
     <row r="171" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A171" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C171" s="6" t="s">
         <v>11</v>
@@ -6211,10 +6244,10 @@
     </row>
     <row r="172" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A172" s="15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C172" s="6" t="s">
         <v>11</v>
@@ -6235,10 +6268,10 @@
     </row>
     <row r="173" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A173" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C173" s="6" t="s">
         <v>11</v>
@@ -6259,10 +6292,10 @@
     </row>
     <row r="174" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A174" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C174" s="6" t="s">
         <v>11</v>
@@ -6283,10 +6316,10 @@
     </row>
     <row r="175" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A175" s="15" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C175" s="6" t="s">
         <v>11</v>
@@ -6307,10 +6340,10 @@
     </row>
     <row r="176" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A176" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C176" s="6" t="s">
         <v>11</v>
@@ -6331,10 +6364,10 @@
     </row>
     <row r="177" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A177" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C177" s="6" t="s">
         <v>11</v>
@@ -6355,10 +6388,10 @@
     </row>
     <row r="178" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A178" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C178" s="6" t="s">
         <v>11</v>
@@ -6379,10 +6412,10 @@
     </row>
     <row r="179" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A179" s="15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C179" s="6" t="s">
         <v>11</v>
@@ -6403,10 +6436,10 @@
     </row>
     <row r="180" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A180" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C180" s="6" t="s">
         <v>11</v>
@@ -6427,10 +6460,10 @@
     </row>
     <row r="181" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A181" s="15" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C181" s="6" t="s">
         <v>11</v>
@@ -6451,10 +6484,10 @@
     </row>
     <row r="182" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A182" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C182" s="6" t="s">
         <v>11</v>
@@ -6475,10 +6508,10 @@
     </row>
     <row r="183" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A183" s="15" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C183" s="6" t="s">
         <v>11</v>
@@ -6499,10 +6532,10 @@
     </row>
     <row r="184" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A184" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C184" s="6" t="s">
         <v>11</v>
@@ -6523,10 +6556,10 @@
     </row>
     <row r="185" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A185" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C185" s="6" t="s">
         <v>11</v>
@@ -6547,10 +6580,10 @@
     </row>
     <row r="186" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A186" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C186" s="6" t="s">
         <v>11</v>
@@ -6571,10 +6604,10 @@
     </row>
     <row r="187" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A187" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C187" s="6" t="s">
         <v>11</v>
@@ -6595,10 +6628,10 @@
     </row>
     <row r="188" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A188" s="15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C188" s="6" t="s">
         <v>11</v>
@@ -6619,10 +6652,10 @@
     </row>
     <row r="189" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A189" s="15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C189" s="6" t="s">
         <v>11</v>
@@ -6643,10 +6676,10 @@
     </row>
     <row r="190" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A190" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C190" s="6" t="s">
         <v>11</v>
@@ -6667,10 +6700,10 @@
     </row>
     <row r="191" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A191" s="15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C191" s="6" t="s">
         <v>11</v>
@@ -6691,10 +6724,10 @@
     </row>
     <row r="192" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A192" s="15" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C192" s="6" t="s">
         <v>11</v>
@@ -6715,10 +6748,10 @@
     </row>
     <row r="193" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A193" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C193" s="6" t="s">
         <v>11</v>
@@ -6739,10 +6772,10 @@
     </row>
     <row r="194" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A194" s="15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C194" s="6" t="s">
         <v>11</v>
@@ -6763,10 +6796,10 @@
     </row>
     <row r="195" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A195" s="6" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C195" s="6" t="s">
         <v>6</v>
@@ -6787,10 +6820,10 @@
     </row>
     <row r="196" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A196" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C196" s="6" t="s">
         <v>6</v>
@@ -6811,10 +6844,10 @@
     </row>
     <row r="197" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A197" s="15" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C197" s="6" t="s">
         <v>6</v>
@@ -6835,10 +6868,10 @@
     </row>
     <row r="198" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A198" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C198" s="6" t="s">
         <v>6</v>
@@ -6859,10 +6892,10 @@
     </row>
     <row r="199" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A199" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C199" s="6" t="s">
         <v>6</v>
@@ -6883,10 +6916,10 @@
     </row>
     <row r="200" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A200" s="6" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C200" s="6" t="s">
         <v>6</v>
@@ -6907,10 +6940,10 @@
     </row>
     <row r="201" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A201" s="6" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C201" s="6" t="s">
         <v>6</v>
@@ -6931,10 +6964,10 @@
     </row>
     <row r="202" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A202" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C202" s="6" t="s">
         <v>6</v>
@@ -6955,10 +6988,10 @@
     </row>
     <row r="203" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A203" s="6" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C203" s="6" t="s">
         <v>6</v>
@@ -6979,10 +7012,10 @@
     </row>
     <row r="204" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A204" s="6" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C204" s="6" t="s">
         <v>6</v>
@@ -7003,10 +7036,10 @@
     </row>
     <row r="205" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A205" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C205" s="6" t="s">
         <v>6</v>
@@ -7027,10 +7060,10 @@
     </row>
     <row r="206" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A206" s="6" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C206" s="6" t="s">
         <v>6</v>
@@ -7051,10 +7084,10 @@
     </row>
     <row r="207" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A207" s="6" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C207" s="6" t="s">
         <v>6</v>
@@ -7075,10 +7108,10 @@
     </row>
     <row r="208" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A208" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C208" s="6" t="s">
         <v>6</v>
@@ -7099,10 +7132,10 @@
     </row>
     <row r="209" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A209" s="6" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C209" s="6" t="s">
         <v>6</v>
@@ -7123,10 +7156,10 @@
     </row>
     <row r="210" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A210" s="15" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C210" s="6" t="s">
         <v>6</v>
@@ -7147,10 +7180,10 @@
     </row>
     <row r="211" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A211" s="15" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C211" s="6" t="s">
         <v>6</v>
@@ -7171,10 +7204,10 @@
     </row>
     <row r="212" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A212" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C212" s="6" t="s">
         <v>6</v>
@@ -7195,10 +7228,10 @@
     </row>
     <row r="213" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A213" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C213" s="6" t="s">
         <v>6</v>
@@ -7219,10 +7252,10 @@
     </row>
     <row r="214" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A214" s="15" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C214" s="6" t="s">
         <v>6</v>
@@ -7243,10 +7276,10 @@
     </row>
     <row r="215" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A215" s="15" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C215" s="6" t="s">
         <v>6</v>
@@ -7267,10 +7300,10 @@
     </row>
     <row r="216" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A216" s="15" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C216" s="6" t="s">
         <v>6</v>
@@ -7291,10 +7324,10 @@
     </row>
     <row r="217" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A217" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C217" s="6" t="s">
         <v>6</v>
@@ -7315,10 +7348,10 @@
     </row>
     <row r="218" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A218" s="15" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C218" s="6" t="s">
         <v>6</v>
@@ -7339,10 +7372,10 @@
     </row>
     <row r="219" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A219" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C219" s="6" t="s">
         <v>6</v>
@@ -7363,10 +7396,10 @@
     </row>
     <row r="220" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A220" s="15" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C220" s="6" t="s">
         <v>6</v>
@@ -7387,10 +7420,10 @@
     </row>
     <row r="221" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A221" s="15" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C221" s="6" t="s">
         <v>6</v>
@@ -7411,10 +7444,10 @@
     </row>
     <row r="222" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A222" s="6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C222" s="6" t="s">
         <v>6</v>
@@ -7435,10 +7468,10 @@
     </row>
     <row r="223" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A223" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C223" s="6" t="s">
         <v>6</v>
@@ -7459,10 +7492,10 @@
     </row>
     <row r="224" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A224" s="6" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C224" s="6" t="s">
         <v>6</v>
@@ -7483,10 +7516,10 @@
     </row>
     <row r="225" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A225" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C225" s="6" t="s">
         <v>6</v>
@@ -7507,10 +7540,10 @@
     </row>
     <row r="226" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A226" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C226" s="6" t="s">
         <v>6</v>
@@ -7531,10 +7564,10 @@
     </row>
     <row r="227" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A227" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C227" s="6" t="s">
         <v>6</v>
@@ -7555,10 +7588,10 @@
     </row>
     <row r="228" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A228" s="15" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C228" s="6" t="s">
         <v>6</v>
@@ -7579,10 +7612,10 @@
     </row>
     <row r="229" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A229" s="6" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C229" s="6" t="s">
         <v>6</v>
@@ -7603,10 +7636,10 @@
     </row>
     <row r="230" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A230" s="15" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C230" s="6" t="s">
         <v>6</v>
@@ -7627,10 +7660,10 @@
     </row>
     <row r="231" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A231" s="15" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C231" s="6" t="s">
         <v>6</v>
@@ -7651,10 +7684,10 @@
     </row>
     <row r="232" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A232" s="15" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C232" s="6" t="s">
         <v>6</v>
@@ -7675,10 +7708,10 @@
     </row>
     <row r="233" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A233" s="15" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C233" s="6" t="s">
         <v>6</v>
@@ -7699,10 +7732,10 @@
     </row>
     <row r="234" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A234" s="6" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C234" s="6" t="s">
         <v>6</v>
@@ -7723,10 +7756,10 @@
     </row>
     <row r="235" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A235" s="15" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C235" s="6" t="s">
         <v>6</v>
@@ -7747,10 +7780,10 @@
     </row>
     <row r="236" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A236" s="15" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C236" s="6" t="s">
         <v>6</v>
@@ -7771,10 +7804,10 @@
     </row>
     <row r="237" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A237" s="6" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C237" s="6" t="s">
         <v>6</v>
@@ -7795,10 +7828,10 @@
     </row>
     <row r="238" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A238" s="15" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C238" s="6" t="s">
         <v>6</v>
@@ -7819,10 +7852,10 @@
     </row>
     <row r="239" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A239" s="6" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C239" s="6" t="s">
         <v>6</v>
@@ -7843,10 +7876,10 @@
     </row>
     <row r="240" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A240" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C240" s="6" t="s">
         <v>6</v>
@@ -7867,10 +7900,10 @@
     </row>
     <row r="241" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A241" s="15" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C241" s="6" t="s">
         <v>6</v>
@@ -7891,10 +7924,10 @@
     </row>
     <row r="242" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A242" s="6" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C242" s="6" t="s">
         <v>6</v>
@@ -7915,10 +7948,10 @@
     </row>
     <row r="243" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A243" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C243" s="6" t="s">
         <v>11</v>
@@ -7939,10 +7972,10 @@
     </row>
     <row r="244" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A244" s="6" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C244" s="6" t="s">
         <v>11</v>
@@ -7963,10 +7996,10 @@
     </row>
     <row r="245" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A245" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C245" s="6" t="s">
         <v>11</v>
@@ -7987,10 +8020,10 @@
     </row>
     <row r="246" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A246" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C246" s="6" t="s">
         <v>11</v>
@@ -8011,10 +8044,10 @@
     </row>
     <row r="247" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A247" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C247" s="6" t="s">
         <v>11</v>
@@ -8035,10 +8068,10 @@
     </row>
     <row r="248" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A248" s="15" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C248" s="6" t="s">
         <v>11</v>
@@ -8059,10 +8092,10 @@
     </row>
     <row r="249" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A249" s="15" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C249" s="6" t="s">
         <v>11</v>
@@ -8083,10 +8116,10 @@
     </row>
     <row r="250" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A250" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C250" s="6" t="s">
         <v>11</v>
@@ -8107,10 +8140,10 @@
     </row>
     <row r="251" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A251" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C251" s="6" t="s">
         <v>11</v>
@@ -8131,10 +8164,10 @@
     </row>
     <row r="252" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A252" s="6" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C252" s="6" t="s">
         <v>11</v>
@@ -8155,10 +8188,10 @@
     </row>
     <row r="253" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A253" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C253" s="6" t="s">
         <v>11</v>
@@ -8179,10 +8212,10 @@
     </row>
     <row r="254" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A254" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C254" s="6" t="s">
         <v>11</v>
@@ -8203,10 +8236,10 @@
     </row>
     <row r="255" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A255" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C255" s="6" t="s">
         <v>11</v>
@@ -8227,10 +8260,10 @@
     </row>
     <row r="256" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A256" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C256" s="6" t="s">
         <v>11</v>
@@ -8251,10 +8284,10 @@
     </row>
     <row r="257" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A257" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C257" s="6" t="s">
         <v>11</v>
@@ -8275,10 +8308,10 @@
     </row>
     <row r="258" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A258" s="6" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C258" s="6" t="s">
         <v>11</v>
@@ -8299,10 +8332,10 @@
     </row>
     <row r="259" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A259" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C259" s="6" t="s">
         <v>11</v>
@@ -8323,10 +8356,10 @@
     </row>
     <row r="260" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A260" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C260" s="6" t="s">
         <v>11</v>
@@ -8347,10 +8380,10 @@
     </row>
     <row r="261" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A261" s="6" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C261" s="6" t="s">
         <v>11</v>
@@ -8371,10 +8404,10 @@
     </row>
     <row r="262" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A262" s="6" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C262" s="6" t="s">
         <v>11</v>
@@ -8395,10 +8428,10 @@
     </row>
     <row r="263" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A263" s="15" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C263" s="6" t="s">
         <v>11</v>
@@ -8419,10 +8452,10 @@
     </row>
     <row r="264" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A264" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C264" s="6" t="s">
         <v>11</v>
@@ -8443,10 +8476,10 @@
     </row>
     <row r="265" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A265" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C265" s="6" t="s">
         <v>11</v>
@@ -8467,10 +8500,10 @@
     </row>
     <row r="266" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A266" s="15" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C266" s="6" t="s">
         <v>11</v>
@@ -8491,10 +8524,10 @@
     </row>
     <row r="267" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A267" s="6" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C267" s="6" t="s">
         <v>11</v>
@@ -8515,10 +8548,10 @@
     </row>
     <row r="268" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A268" s="6" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C268" s="6" t="s">
         <v>11</v>
@@ -8539,10 +8572,10 @@
     </row>
     <row r="269" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A269" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C269" s="6" t="s">
         <v>11</v>
@@ -8563,10 +8596,10 @@
     </row>
     <row r="270" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A270" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C270" s="6" t="s">
         <v>11</v>
@@ -8587,10 +8620,10 @@
     </row>
     <row r="271" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A271" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C271" s="6" t="s">
         <v>11</v>
@@ -8611,10 +8644,10 @@
     </row>
     <row r="272" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A272" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C272" s="6" t="s">
         <v>11</v>
@@ -8635,10 +8668,10 @@
     </row>
     <row r="273" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A273" s="15" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C273" s="6" t="s">
         <v>11</v>
@@ -8659,10 +8692,10 @@
     </row>
     <row r="274" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A274" s="15" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C274" s="6" t="s">
         <v>11</v>
@@ -8683,10 +8716,10 @@
     </row>
     <row r="275" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A275" s="15" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C275" s="6" t="s">
         <v>11</v>
@@ -8707,10 +8740,10 @@
     </row>
     <row r="276" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A276" s="15" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C276" s="6" t="s">
         <v>11</v>
@@ -8731,10 +8764,10 @@
     </row>
     <row r="277" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A277" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C277" s="6" t="s">
         <v>11</v>
@@ -8755,10 +8788,10 @@
     </row>
     <row r="278" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A278" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C278" s="6" t="s">
         <v>11</v>
@@ -8779,10 +8812,10 @@
     </row>
     <row r="279" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A279" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C279" s="6" t="s">
         <v>11</v>
@@ -8803,10 +8836,10 @@
     </row>
     <row r="280" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A280" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C280" s="6" t="s">
         <v>11</v>
@@ -8825,645 +8858,1669 @@
       </c>
       <c r="H280" s="6"/>
     </row>
-    <row r="281" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="6"/>
-      <c r="B281" s="6"/>
-      <c r="C281" s="6"/>
-      <c r="D281" s="6"/>
-      <c r="E281" s="6"/>
-      <c r="F281" s="6"/>
-      <c r="G281" s="6"/>
-      <c r="H281" s="6"/>
+    <row r="281" spans="1:8" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A281" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="B281" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="C281" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D281" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E281" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F281" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G281" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H281" s="13">
+        <v>89178753711</v>
+      </c>
     </row>
     <row r="282" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="6"/>
-      <c r="B282" s="6"/>
-      <c r="C282" s="6"/>
-      <c r="D282" s="6"/>
-      <c r="E282" s="6"/>
-      <c r="F282" s="6"/>
-      <c r="G282" s="6"/>
-      <c r="H282" s="6"/>
+      <c r="A282" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B282" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C282" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D282" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E282" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F282" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G282" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H282" s="13">
+        <v>89639080019</v>
+      </c>
     </row>
     <row r="283" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="6"/>
-      <c r="B283" s="6"/>
-      <c r="C283" s="6"/>
-      <c r="D283" s="6"/>
-      <c r="E283" s="6"/>
-      <c r="F283" s="6"/>
-      <c r="G283" s="6"/>
-      <c r="H283" s="6"/>
+      <c r="A283" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B283" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C283" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D283" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E283" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F283" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G283" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H283" s="13">
+        <v>89817187811</v>
+      </c>
     </row>
     <row r="284" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="6"/>
-      <c r="B284" s="6"/>
-      <c r="C284" s="6"/>
-      <c r="D284" s="6"/>
-      <c r="E284" s="6"/>
-      <c r="F284" s="6"/>
-      <c r="G284" s="6"/>
-      <c r="H284" s="6"/>
+      <c r="A284" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B284" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C284" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D284" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E284" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F284" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G284" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H284" s="13">
+        <v>89109867812</v>
+      </c>
     </row>
     <row r="285" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="6"/>
-      <c r="B285" s="6"/>
-      <c r="C285" s="6"/>
-      <c r="D285" s="6"/>
-      <c r="E285" s="6"/>
-      <c r="F285" s="6"/>
-      <c r="G285" s="6"/>
-      <c r="H285" s="6"/>
+      <c r="A285" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B285" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C285" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D285" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E285" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F285" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G285" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H285" s="13">
+        <v>89151069503</v>
+      </c>
     </row>
     <row r="286" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="6"/>
-      <c r="B286" s="6"/>
-      <c r="C286" s="6"/>
-      <c r="D286" s="6"/>
-      <c r="E286" s="6"/>
-      <c r="F286" s="6"/>
-      <c r="G286" s="6"/>
-      <c r="H286" s="6"/>
+      <c r="A286" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="B286" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C286" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D286" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E286" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F286" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G286" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H286" s="13">
+        <v>89183500314</v>
+      </c>
     </row>
     <row r="287" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="6"/>
-      <c r="B287" s="6"/>
-      <c r="C287" s="6"/>
-      <c r="D287" s="6"/>
-      <c r="E287" s="6"/>
-      <c r="F287" s="6"/>
-      <c r="G287" s="6"/>
-      <c r="H287" s="6"/>
-    </row>
-    <row r="288" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="6"/>
-      <c r="B288" s="6"/>
-      <c r="C288" s="6"/>
-      <c r="D288" s="6"/>
-      <c r="E288" s="6"/>
-      <c r="F288" s="6"/>
-      <c r="G288" s="6"/>
-      <c r="H288" s="6"/>
+      <c r="A287" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B287" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C287" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D287" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E287" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F287" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G287" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H287" s="13">
+        <v>89165128876</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A288" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B288" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C288" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D288" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E288" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F288" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G288" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H288" s="13">
+        <v>89106637291</v>
+      </c>
     </row>
     <row r="289" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A289" s="6"/>
-      <c r="B289" s="6"/>
-      <c r="C289" s="6"/>
-      <c r="D289" s="6"/>
-      <c r="E289" s="6"/>
-      <c r="F289" s="6"/>
-      <c r="G289" s="6"/>
-      <c r="H289" s="6"/>
+      <c r="A289" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B289" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C289" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D289" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E289" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F289" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G289" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H289" s="13">
+        <v>89883970489</v>
+      </c>
     </row>
     <row r="290" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A290" s="6"/>
-      <c r="B290" s="6"/>
-      <c r="C290" s="6"/>
-      <c r="D290" s="6"/>
-      <c r="E290" s="6"/>
-      <c r="F290" s="6"/>
-      <c r="G290" s="6"/>
-      <c r="H290" s="6"/>
+      <c r="A290" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B290" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C290" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D290" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E290" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F290" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G290" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H290" s="13">
+        <v>89042555215</v>
+      </c>
     </row>
     <row r="291" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A291" s="6"/>
-      <c r="B291" s="6"/>
-      <c r="C291" s="6"/>
-      <c r="D291" s="6"/>
-      <c r="E291" s="6"/>
-      <c r="F291" s="6"/>
-      <c r="G291" s="6"/>
-      <c r="H291" s="6"/>
+      <c r="A291" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B291" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C291" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D291" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E291" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F291" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G291" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H291" s="13">
+        <v>89181338623</v>
+      </c>
     </row>
     <row r="292" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="6"/>
-      <c r="B292" s="6"/>
-      <c r="C292" s="6"/>
-      <c r="D292" s="6"/>
-      <c r="E292" s="6"/>
-      <c r="F292" s="6"/>
-      <c r="G292" s="6"/>
-      <c r="H292" s="6"/>
+      <c r="A292" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="B292" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C292" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D292" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E292" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F292" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G292" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H292" s="13">
+        <v>89119401772</v>
+      </c>
     </row>
     <row r="293" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A293" s="6"/>
-      <c r="B293" s="6"/>
-      <c r="C293" s="6"/>
-      <c r="D293" s="6"/>
-      <c r="E293" s="6"/>
-      <c r="F293" s="6"/>
-      <c r="G293" s="6"/>
-      <c r="H293" s="6"/>
+      <c r="A293" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="B293" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C293" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D293" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E293" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F293" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G293" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H293" s="13">
+        <v>89829921377</v>
+      </c>
     </row>
     <row r="294" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A294" s="6"/>
-      <c r="B294" s="6"/>
-      <c r="C294" s="6"/>
-      <c r="D294" s="6"/>
-      <c r="E294" s="6"/>
-      <c r="F294" s="6"/>
-      <c r="G294" s="6"/>
-      <c r="H294" s="6"/>
+      <c r="A294" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B294" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C294" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D294" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E294" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F294" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G294" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H294" s="13">
+        <v>89990442050</v>
+      </c>
     </row>
     <row r="295" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="6"/>
-      <c r="B295" s="6"/>
-      <c r="C295" s="6"/>
-      <c r="D295" s="6"/>
-      <c r="E295" s="6"/>
-      <c r="F295" s="6"/>
-      <c r="G295" s="6"/>
-      <c r="H295" s="6"/>
+      <c r="A295" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="B295" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C295" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D295" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E295" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F295" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G295" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H295" s="13">
+        <v>89192282831</v>
+      </c>
     </row>
     <row r="296" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A296" s="6"/>
-      <c r="B296" s="6"/>
-      <c r="C296" s="6"/>
-      <c r="D296" s="6"/>
-      <c r="E296" s="6"/>
-      <c r="F296" s="6"/>
-      <c r="G296" s="6"/>
-      <c r="H296" s="6"/>
-    </row>
-    <row r="297" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A297" s="6"/>
-      <c r="B297" s="6"/>
-      <c r="C297" s="6"/>
-      <c r="D297" s="6"/>
-      <c r="E297" s="6"/>
-      <c r="F297" s="6"/>
-      <c r="G297" s="6"/>
-      <c r="H297" s="6"/>
+      <c r="A296" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="B296" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C296" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D296" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E296" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F296" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G296" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H296" s="13">
+        <v>89851113813</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A297" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B297" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C297" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D297" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E297" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F297" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G297" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H297" s="13">
+        <v>89112770365</v>
+      </c>
     </row>
     <row r="298" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A298" s="6"/>
-      <c r="B298" s="6"/>
-      <c r="C298" s="6"/>
-      <c r="D298" s="6"/>
-      <c r="E298" s="6"/>
-      <c r="F298" s="6"/>
-      <c r="G298" s="6"/>
-      <c r="H298" s="6"/>
+      <c r="A298" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B298" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C298" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D298" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E298" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F298" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G298" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H298" s="13">
+        <v>89171106075</v>
+      </c>
     </row>
     <row r="299" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A299" s="6"/>
-      <c r="B299" s="6"/>
-      <c r="C299" s="6"/>
-      <c r="D299" s="6"/>
-      <c r="E299" s="6"/>
-      <c r="F299" s="6"/>
-      <c r="G299" s="6"/>
-      <c r="H299" s="6"/>
+      <c r="A299" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B299" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C299" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D299" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E299" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F299" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G299" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H299" s="13">
+        <v>89153120412</v>
+      </c>
     </row>
     <row r="300" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A300" s="6"/>
-      <c r="B300" s="6"/>
-      <c r="C300" s="6"/>
-      <c r="D300" s="6"/>
-      <c r="E300" s="6"/>
-      <c r="F300" s="6"/>
-      <c r="G300" s="6"/>
-      <c r="H300" s="6"/>
+      <c r="A300" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B300" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C300" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D300" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E300" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F300" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G300" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H300" s="13">
+        <v>89163552916</v>
+      </c>
     </row>
     <row r="301" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A301" s="6"/>
-      <c r="B301" s="6"/>
-      <c r="C301" s="6"/>
-      <c r="D301" s="6"/>
-      <c r="E301" s="6"/>
-      <c r="F301" s="6"/>
-      <c r="G301" s="6"/>
-      <c r="H301" s="6"/>
+      <c r="A301" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B301" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C301" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D301" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E301" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F301" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G301" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H301" s="13">
+        <v>89226119181</v>
+      </c>
     </row>
     <row r="302" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="6"/>
-      <c r="B302" s="6"/>
-      <c r="C302" s="6"/>
-      <c r="D302" s="6"/>
-      <c r="E302" s="6"/>
-      <c r="F302" s="6"/>
-      <c r="G302" s="6"/>
-      <c r="H302" s="6"/>
+      <c r="A302" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="B302" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C302" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D302" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E302" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F302" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G302" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H302" s="13">
+        <v>89871517716</v>
+      </c>
     </row>
     <row r="303" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A303" s="6"/>
-      <c r="B303" s="6"/>
-      <c r="C303" s="6"/>
-      <c r="D303" s="6"/>
-      <c r="E303" s="6"/>
-      <c r="F303" s="6"/>
-      <c r="G303" s="6"/>
-      <c r="H303" s="6"/>
+      <c r="A303" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="B303" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C303" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D303" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E303" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F303" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G303" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H303" s="13">
+        <v>89648925660</v>
+      </c>
     </row>
     <row r="304" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="6"/>
-      <c r="B304" s="6"/>
-      <c r="C304" s="6"/>
-      <c r="D304" s="6"/>
-      <c r="E304" s="6"/>
-      <c r="F304" s="6"/>
-      <c r="G304" s="6"/>
-      <c r="H304" s="6"/>
+      <c r="A304" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B304" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C304" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D304" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E304" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F304" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G304" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H304" s="13">
+        <v>89827023992</v>
+      </c>
     </row>
     <row r="305" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A305" s="6"/>
-      <c r="B305" s="6"/>
-      <c r="C305" s="6"/>
-      <c r="D305" s="6"/>
-      <c r="E305" s="6"/>
-      <c r="F305" s="6"/>
-      <c r="G305" s="6"/>
-      <c r="H305" s="6"/>
+      <c r="A305" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="B305" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C305" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D305" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E305" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F305" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G305" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H305" s="13">
+        <v>89119960778</v>
+      </c>
     </row>
     <row r="306" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="6"/>
-      <c r="B306" s="6"/>
-      <c r="C306" s="6"/>
-      <c r="D306" s="6"/>
-      <c r="E306" s="6"/>
-      <c r="F306" s="6"/>
-      <c r="G306" s="6"/>
-      <c r="H306" s="6"/>
+      <c r="A306" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="B306" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C306" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D306" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E306" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F306" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G306" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H306" s="13">
+        <v>89166188342</v>
+      </c>
     </row>
     <row r="307" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A307" s="6"/>
-      <c r="B307" s="6"/>
-      <c r="C307" s="6"/>
-      <c r="D307" s="6"/>
-      <c r="E307" s="6"/>
-      <c r="F307" s="6"/>
-      <c r="G307" s="6"/>
-      <c r="H307" s="6"/>
+      <c r="A307" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B307" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C307" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D307" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E307" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F307" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G307" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H307" s="13">
+        <v>89148803343</v>
+      </c>
     </row>
     <row r="308" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A308" s="6"/>
-      <c r="B308" s="6"/>
-      <c r="C308" s="6"/>
-      <c r="D308" s="6"/>
-      <c r="E308" s="6"/>
-      <c r="F308" s="6"/>
-      <c r="G308" s="6"/>
-      <c r="H308" s="6"/>
+      <c r="A308" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B308" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C308" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D308" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E308" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F308" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G308" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H308" s="13">
+        <v>89113766132</v>
+      </c>
     </row>
     <row r="309" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A309" s="6"/>
-      <c r="B309" s="6"/>
-      <c r="C309" s="6"/>
-      <c r="D309" s="6"/>
-      <c r="E309" s="6"/>
-      <c r="F309" s="6"/>
-      <c r="G309" s="6"/>
-      <c r="H309" s="6"/>
+      <c r="A309" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="B309" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C309" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D309" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E309" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F309" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G309" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H309" s="13">
+        <v>89869728810</v>
+      </c>
     </row>
     <row r="310" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A310" s="6"/>
-      <c r="B310" s="6"/>
-      <c r="C310" s="6"/>
-      <c r="D310" s="6"/>
-      <c r="E310" s="6"/>
-      <c r="F310" s="6"/>
-      <c r="G310" s="6"/>
-      <c r="H310" s="6"/>
+      <c r="A310" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B310" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C310" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D310" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E310" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F310" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G310" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H310" s="13">
+        <v>89109782566</v>
+      </c>
     </row>
     <row r="311" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A311" s="6"/>
-      <c r="B311" s="6"/>
-      <c r="C311" s="6"/>
-      <c r="D311" s="6"/>
-      <c r="E311" s="6"/>
-      <c r="F311" s="6"/>
-      <c r="G311" s="6"/>
-      <c r="H311" s="6"/>
+      <c r="A311" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="B311" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C311" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D311" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E311" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F311" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G311" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H311" s="13">
+        <v>89159753950</v>
+      </c>
     </row>
     <row r="312" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A312" s="6"/>
-      <c r="B312" s="6"/>
-      <c r="C312" s="6"/>
-      <c r="D312" s="6"/>
-      <c r="E312" s="6"/>
-      <c r="F312" s="6"/>
-      <c r="G312" s="6"/>
-      <c r="H312" s="6"/>
+      <c r="A312" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B312" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C312" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D312" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E312" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F312" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G312" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H312" s="13">
+        <v>89044487961</v>
+      </c>
     </row>
     <row r="313" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A313" s="6"/>
-      <c r="B313" s="6"/>
-      <c r="C313" s="6"/>
-      <c r="D313" s="6"/>
-      <c r="E313" s="6"/>
-      <c r="F313" s="6"/>
-      <c r="G313" s="6"/>
-      <c r="H313" s="6"/>
+      <c r="A313" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="B313" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C313" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D313" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E313" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F313" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G313" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H313" s="13">
+        <v>89178444107</v>
+      </c>
     </row>
     <row r="314" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A314" s="6"/>
-      <c r="B314" s="6"/>
-      <c r="C314" s="6"/>
-      <c r="D314" s="6"/>
-      <c r="E314" s="6"/>
-      <c r="F314" s="6"/>
-      <c r="G314" s="6"/>
-      <c r="H314" s="6"/>
+      <c r="A314" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B314" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C314" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D314" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E314" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F314" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G314" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H314" s="13">
+        <v>89062467575</v>
+      </c>
     </row>
     <row r="315" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A315" s="6"/>
-      <c r="B315" s="6"/>
-      <c r="C315" s="6"/>
-      <c r="D315" s="6"/>
-      <c r="E315" s="6"/>
-      <c r="F315" s="6"/>
-      <c r="G315" s="6"/>
-      <c r="H315" s="6"/>
+      <c r="A315" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="B315" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C315" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D315" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E315" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F315" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G315" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H315" s="13">
+        <v>89165125624</v>
+      </c>
     </row>
     <row r="316" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A316" s="6"/>
-      <c r="B316" s="6"/>
-      <c r="C316" s="6"/>
-      <c r="D316" s="6"/>
-      <c r="E316" s="6"/>
-      <c r="F316" s="6"/>
-      <c r="G316" s="6"/>
-      <c r="H316" s="6"/>
-    </row>
-    <row r="317" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A317" s="6"/>
-      <c r="B317" s="6"/>
-      <c r="C317" s="6"/>
-      <c r="D317" s="6"/>
-      <c r="E317" s="6"/>
-      <c r="F317" s="6"/>
-      <c r="G317" s="6"/>
-      <c r="H317" s="6"/>
+      <c r="A316" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B316" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C316" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D316" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E316" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F316" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G316" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H316" s="13">
+        <v>89872909166</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A317" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B317" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C317" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D317" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E317" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F317" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G317" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H317" s="13">
+        <v>89172330073</v>
+      </c>
     </row>
     <row r="318" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A318" s="6"/>
-      <c r="B318" s="6"/>
-      <c r="C318" s="6"/>
-      <c r="D318" s="6"/>
-      <c r="E318" s="6"/>
-      <c r="F318" s="6"/>
-      <c r="G318" s="6"/>
-      <c r="H318" s="6"/>
+      <c r="A318" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="B318" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C318" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D318" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E318" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F318" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G318" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H318" s="13">
+        <v>89166245278</v>
+      </c>
     </row>
     <row r="319" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A319" s="6"/>
-      <c r="B319" s="6"/>
-      <c r="C319" s="6"/>
-      <c r="D319" s="6"/>
-      <c r="E319" s="6"/>
-      <c r="F319" s="6"/>
-      <c r="G319" s="6"/>
-      <c r="H319" s="6"/>
+      <c r="A319" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B319" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C319" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D319" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E319" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F319" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G319" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H319" s="13">
+        <v>89101872687</v>
+      </c>
     </row>
     <row r="320" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A320" s="6"/>
-      <c r="B320" s="6"/>
-      <c r="C320" s="6"/>
-      <c r="D320" s="6"/>
-      <c r="E320" s="6"/>
-      <c r="F320" s="6"/>
-      <c r="G320" s="6"/>
-      <c r="H320" s="6"/>
+      <c r="A320" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B320" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C320" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D320" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E320" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F320" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G320" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H320" s="13">
+        <v>89111740007</v>
+      </c>
     </row>
     <row r="321" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A321" s="6"/>
-      <c r="B321" s="6"/>
-      <c r="C321" s="6"/>
-      <c r="D321" s="6"/>
-      <c r="E321" s="6"/>
-      <c r="F321" s="6"/>
-      <c r="G321" s="6"/>
-      <c r="H321" s="6"/>
+      <c r="A321" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B321" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C321" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D321" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E321" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F321" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G321" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H321" s="13">
+        <v>89151088299</v>
+      </c>
     </row>
     <row r="322" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A322" s="6"/>
-      <c r="B322" s="6"/>
-      <c r="C322" s="6"/>
-      <c r="D322" s="6"/>
-      <c r="E322" s="6"/>
-      <c r="F322" s="6"/>
-      <c r="G322" s="6"/>
-      <c r="H322" s="6"/>
+      <c r="A322" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B322" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C322" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D322" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E322" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F322" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G322" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H322" s="13">
+        <v>89819183810</v>
+      </c>
     </row>
     <row r="323" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A323" s="6"/>
-      <c r="B323" s="6"/>
-      <c r="C323" s="6"/>
-      <c r="D323" s="6"/>
-      <c r="E323" s="6"/>
-      <c r="F323" s="6"/>
-      <c r="G323" s="6"/>
-      <c r="H323" s="6"/>
+      <c r="A323" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B323" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C323" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D323" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E323" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F323" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G323" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H323" s="13">
+        <v>89819746642</v>
+      </c>
     </row>
     <row r="324" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A324" s="6"/>
-      <c r="B324" s="6"/>
-      <c r="C324" s="6"/>
-      <c r="D324" s="6"/>
-      <c r="E324" s="6"/>
-      <c r="F324" s="6"/>
-      <c r="G324" s="6"/>
-      <c r="H324" s="6"/>
+      <c r="A324" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B324" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C324" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D324" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E324" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F324" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G324" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H324" s="13">
+        <v>89105012024</v>
+      </c>
     </row>
     <row r="325" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A325" s="6"/>
-      <c r="B325" s="6"/>
-      <c r="C325" s="6"/>
-      <c r="D325" s="6"/>
-      <c r="E325" s="6"/>
-      <c r="F325" s="6"/>
-      <c r="G325" s="6"/>
-      <c r="H325" s="6"/>
+      <c r="A325" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B325" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C325" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D325" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E325" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F325" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G325" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H325" s="13">
+        <v>89114711736</v>
+      </c>
     </row>
     <row r="326" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A326" s="6"/>
-      <c r="B326" s="6"/>
-      <c r="C326" s="6"/>
-      <c r="D326" s="6"/>
-      <c r="E326" s="6"/>
-      <c r="F326" s="6"/>
-      <c r="G326" s="6"/>
-      <c r="H326" s="6"/>
+      <c r="A326" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="B326" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C326" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D326" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E326" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F326" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G326" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H326" s="13">
+        <v>89872959354</v>
+      </c>
     </row>
     <row r="327" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A327" s="6"/>
-      <c r="B327" s="6"/>
-      <c r="C327" s="6"/>
-      <c r="D327" s="6"/>
-      <c r="E327" s="6"/>
-      <c r="F327" s="6"/>
-      <c r="G327" s="6"/>
-      <c r="H327" s="6"/>
+      <c r="A327" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="B327" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C327" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D327" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E327" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F327" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G327" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H327" s="13">
+        <v>89179427521</v>
+      </c>
     </row>
     <row r="328" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A328" s="6"/>
-      <c r="B328" s="6"/>
-      <c r="C328" s="6"/>
-      <c r="D328" s="6"/>
-      <c r="E328" s="6"/>
-      <c r="F328" s="6"/>
-      <c r="G328" s="6"/>
-      <c r="H328" s="6"/>
+      <c r="A328" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B328" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C328" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D328" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E328" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F328" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G328" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H328" s="13">
+        <v>89117485036</v>
+      </c>
     </row>
     <row r="329" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A329" s="6"/>
-      <c r="B329" s="6"/>
-      <c r="C329" s="6"/>
-      <c r="D329" s="6"/>
-      <c r="E329" s="6"/>
-      <c r="F329" s="6"/>
-      <c r="G329" s="6"/>
-      <c r="H329" s="6"/>
+      <c r="A329" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B329" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C329" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D329" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E329" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F329" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G329" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H329" s="13">
+        <v>89817953658</v>
+      </c>
     </row>
     <row r="330" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A330" s="6"/>
-      <c r="B330" s="6"/>
-      <c r="C330" s="6"/>
-      <c r="D330" s="6"/>
-      <c r="E330" s="6"/>
-      <c r="F330" s="6"/>
-      <c r="G330" s="6"/>
-      <c r="H330" s="6"/>
+      <c r="A330" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="B330" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C330" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D330" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E330" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F330" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G330" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H330" s="13">
+        <v>89160695348</v>
+      </c>
     </row>
     <row r="331" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A331" s="6"/>
-      <c r="B331" s="6"/>
-      <c r="C331" s="6"/>
-      <c r="D331" s="6"/>
-      <c r="E331" s="6"/>
-      <c r="F331" s="6"/>
-      <c r="G331" s="6"/>
-      <c r="H331" s="6"/>
+      <c r="A331" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="B331" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C331" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D331" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E331" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F331" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G331" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H331" s="13">
+        <v>89895745205</v>
+      </c>
     </row>
     <row r="332" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A332" s="6"/>
-      <c r="B332" s="6"/>
-      <c r="C332" s="6"/>
-      <c r="D332" s="6"/>
-      <c r="E332" s="6"/>
-      <c r="F332" s="6"/>
-      <c r="G332" s="6"/>
-      <c r="H332" s="6"/>
+      <c r="A332" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B332" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C332" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D332" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E332" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F332" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G332" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H332" s="13">
+        <v>89117510406</v>
+      </c>
     </row>
     <row r="333" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A333" s="6"/>
-      <c r="B333" s="6"/>
-      <c r="C333" s="6"/>
-      <c r="D333" s="6"/>
-      <c r="E333" s="6"/>
-      <c r="F333" s="6"/>
-      <c r="G333" s="6"/>
-      <c r="H333" s="6"/>
+      <c r="A333" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B333" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C333" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D333" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E333" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F333" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G333" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H333" s="13">
+        <v>89163257752</v>
+      </c>
     </row>
     <row r="334" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A334" s="6"/>
-      <c r="B334" s="6"/>
-      <c r="C334" s="6"/>
-      <c r="D334" s="6"/>
-      <c r="E334" s="6"/>
-      <c r="F334" s="6"/>
-      <c r="G334" s="6"/>
-      <c r="H334" s="6"/>
+      <c r="A334" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="B334" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C334" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D334" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E334" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F334" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G334" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H334" s="13">
+        <v>89110356756</v>
+      </c>
     </row>
     <row r="335" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A335" s="6"/>
-      <c r="B335" s="6"/>
-      <c r="C335" s="6"/>
-      <c r="D335" s="6"/>
-      <c r="E335" s="6"/>
-      <c r="F335" s="6"/>
-      <c r="G335" s="6"/>
-      <c r="H335" s="6"/>
-    </row>
-    <row r="336" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A336" s="6"/>
-      <c r="B336" s="6"/>
-      <c r="C336" s="6"/>
-      <c r="D336" s="6"/>
-      <c r="E336" s="6"/>
-      <c r="F336" s="6"/>
-      <c r="G336" s="6"/>
-      <c r="H336" s="6"/>
+      <c r="A335" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="B335" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C335" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D335" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E335" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F335" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G335" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H335" s="13">
+        <v>89106545358</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A336" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="B336" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C336" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D336" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E336" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F336" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G336" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H336" s="13">
+        <v>89182334708</v>
+      </c>
     </row>
     <row r="337" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A337" s="6"/>
-      <c r="B337" s="6"/>
-      <c r="C337" s="6"/>
-      <c r="D337" s="6"/>
-      <c r="E337" s="6"/>
-      <c r="F337" s="6"/>
-      <c r="G337" s="6"/>
-      <c r="H337" s="6"/>
+      <c r="A337" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="B337" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C337" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D337" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E337" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F337" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G337" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H337" s="13">
+        <v>89173562459</v>
+      </c>
     </row>
     <row r="338" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A338" s="6"/>
-      <c r="B338" s="6"/>
-      <c r="C338" s="6"/>
-      <c r="D338" s="6"/>
-      <c r="E338" s="6"/>
-      <c r="F338" s="6"/>
-      <c r="G338" s="6"/>
-      <c r="H338" s="6"/>
+      <c r="A338" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B338" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C338" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D338" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E338" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F338" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G338" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H338" s="13">
+        <v>89263577861</v>
+      </c>
     </row>
     <row r="339" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A339" s="6"/>
-      <c r="B339" s="6"/>
-      <c r="C339" s="6"/>
-      <c r="D339" s="6"/>
-      <c r="E339" s="6"/>
-      <c r="F339" s="6"/>
-      <c r="G339" s="6"/>
-      <c r="H339" s="6"/>
+      <c r="A339" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B339" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C339" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D339" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E339" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F339" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G339" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H339" s="13">
+        <v>89857240552</v>
+      </c>
     </row>
     <row r="340" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A340" s="6"/>
-      <c r="B340" s="6"/>
-      <c r="C340" s="6"/>
-      <c r="D340" s="6"/>
-      <c r="E340" s="6"/>
-      <c r="F340" s="6"/>
-      <c r="G340" s="6"/>
-      <c r="H340" s="6"/>
+      <c r="A340" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="B340" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C340" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D340" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E340" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F340" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G340" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H340" s="13">
+        <v>89167665498</v>
+      </c>
     </row>
     <row r="341" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A341" s="6"/>
-      <c r="B341" s="6"/>
-      <c r="C341" s="6"/>
-      <c r="D341" s="6"/>
-      <c r="E341" s="6"/>
-      <c r="F341" s="6"/>
-      <c r="G341" s="6"/>
-      <c r="H341" s="6"/>
+      <c r="A341" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B341" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C341" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D341" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E341" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F341" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G341" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H341" s="13">
+        <v>89164459979</v>
+      </c>
     </row>
     <row r="342" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A342" s="6"/>
-      <c r="B342" s="6"/>
-      <c r="C342" s="6"/>
-      <c r="D342" s="6"/>
-      <c r="E342" s="6"/>
-      <c r="F342" s="6"/>
-      <c r="G342" s="6"/>
-      <c r="H342" s="6"/>
+      <c r="A342" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B342" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C342" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D342" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E342" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F342" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G342" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H342" s="13">
+        <v>89139412817</v>
+      </c>
     </row>
     <row r="343" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A343" s="6"/>
-      <c r="B343" s="6"/>
-      <c r="C343" s="6"/>
-      <c r="D343" s="6"/>
-      <c r="E343" s="6"/>
-      <c r="F343" s="6"/>
-      <c r="G343" s="6"/>
-      <c r="H343" s="6"/>
+      <c r="A343" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="B343" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C343" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D343" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E343" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F343" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G343" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H343" s="13">
+        <v>89817421326</v>
+      </c>
     </row>
     <row r="344" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A344" s="6"/>
-      <c r="B344" s="6"/>
-      <c r="C344" s="6"/>
-      <c r="D344" s="6"/>
-      <c r="E344" s="6"/>
-      <c r="F344" s="6"/>
-      <c r="G344" s="6"/>
-      <c r="H344" s="6"/>
+      <c r="A344" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B344" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C344" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D344" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E344" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F344" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G344" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H344" s="13">
+        <v>89150444724</v>
+      </c>
     </row>
     <row r="345" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A345" s="6"/>
@@ -12350,7 +13407,7 @@
   <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12419,96 +13476,96 @@
       <c r="S1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="U1" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="V1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="X1" s="4"/>
       <c r="Y1" s="4"/>
       <c r="Z1" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="408.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="M2" s="4"/>
       <c r="N2" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="V2" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="O2" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q2" s="6" t="s">
+      <c r="W2" s="6" t="s">
         <v>143</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>146</v>
       </c>
       <c r="X2" s="4"/>
       <c r="Y2" s="4"/>
       <c r="Z2" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
